--- a/aiurt-module-system/src/main/resources/templates/trainarchivetemple.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/trainarchivetemple.xlsx
@@ -22,12 +22,12 @@
     <t>个人培训档案导入模板
 填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
-2.请严格按照数据规范填写，并填写完所有必填项，灰底黑字列为必填项；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 3.请勿删除表格中填充颜色的字段；
 字段说明：
 1.姓名、工号为必填字段
 2.第一学历、最高学历、岗位变动记录、培训记录这四个模块为非必填
-如填写某个模块，则必须都填写，
+如填写某个模块，则必须将填写的模块里所有的字段，都填写，
 学历，只能填写：小学、初中、高中、大专、本科、研究生，
 毕业形式，只能填写：统招、非统招，
 毕业时间、上岗时间、培训时间，只能按“2023-06-28”这种格式填写，
@@ -116,7 +116,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,24 +125,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="楷体"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="楷体"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -299,7 +303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,34 +782,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,98 +818,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,64 +922,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -990,19 +985,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,7 +1351,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="P10" sqref="P10:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1381,7 +1376,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="257" customHeight="1" spans="1:9">
+    <row r="2" ht="225" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1394,7 +1389,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="15" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1407,9 +1402,9 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="27"/>
+      <c r="I3" s="24"/>
     </row>
-    <row r="4" ht="18.75" spans="1:9">
+    <row r="4" ht="14.25" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1420,41 +1415,41 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="28"/>
+      <c r="I4" s="25"/>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
-      <c r="A5" s="12" t="s">
+    <row r="5" ht="15" spans="1:9">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="29"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="26"/>
     </row>
-    <row r="7" ht="18.75" spans="1:9">
+    <row r="7" ht="14.25" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1465,41 +1460,41 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="25"/>
     </row>
-    <row r="8" ht="14.25" spans="1:9">
-      <c r="A8" s="12" t="s">
+    <row r="8" ht="15" spans="1:9">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="14" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="21"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" ht="14.25" spans="1:9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="29"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="26"/>
     </row>
-    <row r="10" ht="18.75" spans="1:9">
+    <row r="10" ht="14.25" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -1510,39 +1505,39 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" ht="14.25" spans="1:9">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="27"/>
     </row>
-    <row r="12" ht="14.25" spans="1:9">
-      <c r="A12" s="21"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="31"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="17"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="28"/>
     </row>
-    <row r="13" ht="18.75" spans="1:9">
+    <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1553,43 +1548,43 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="28"/>
+      <c r="I13" s="25"/>
     </row>
-    <row r="14" ht="28.5" spans="1:9">
-      <c r="A14" s="12" t="s">
+    <row r="14" ht="24" spans="1:9">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="31">
